--- a/product_urls_test.xlsx
+++ b/product_urls_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Programming\amazon-review-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4D6343-E569-41D6-A77C-0063B495C1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D362B9B-2783-4AD2-8C49-CB19189B1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,13 +889,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.33203125" customWidth="1"/>
+    <col min="1" max="1" width="82.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
